--- a/data/trans_bre/P52_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,12</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,52</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,59%</t>
+          <t>-14,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-17,52%</t>
+          <t>-32,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 31,8</t>
+          <t>-1,08; 4,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -1,24</t>
+          <t>-5,64; 1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 3,58</t>
+          <t>-8,64; -0,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 75,16</t>
+          <t>-13,65; 98,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,93; -2,24</t>
+          <t>-42,19; 16,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,92; 8,96</t>
+          <t>-63,07; 0,23</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,87</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>-10,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>38,93%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 12,82</t>
+          <t>-3,32; 5,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 14,99</t>
+          <t>-4,85; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 31,89</t>
+          <t>-1,51; 5,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 29,3</t>
+          <t>-37,04; 105,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 28,07</t>
+          <t>-39,73; 33,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 130,89</t>
+          <t>-19,69; 127,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-20,92</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,27</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>114,82%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,52; 41,32</t>
+          <t>-3,92; 6,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-46,88; 8,23</t>
+          <t>-7,76; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 54,29</t>
+          <t>-0,56; 10,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,91; 304,31</t>
+          <t>-66,34; 434,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,13; 12,13</t>
+          <t>-56,6; 79,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 212,48</t>
+          <t>-23,09; 514,8</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-12,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 17,2</t>
+          <t>-0,76; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -0,08</t>
+          <t>-3,97; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 14,73</t>
+          <t>-3,42; 2,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 38,24</t>
+          <t>-11,51; 71,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -0,12</t>
+          <t>-32,67; 11,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 39,25</t>
+          <t>-33,2; 35,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P52_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P52_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,76%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,66%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-32,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.098597709377652</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-15.30189976996842</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.36145450219029</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.4097145727542458</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2120701904118786</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1544002009612073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 4,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,64; 1,41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; -0,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 98,25</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-42,19; 16,27</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-63,07; 0,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.2127632186916488</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-29.78853647907589</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-24.08264322784353</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.03782168437383011</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.3871244635781581</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4175078735050753</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.243531275518897</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-2.884666740155263</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.520410194046794</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.225162758852977</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>-0.04341853216421149</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1398064587467387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-10,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 5,57</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 2,56</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 5,9</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-37,04; 105,56</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-39,73; 33,48</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-19,69; 127,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.0549185471338684</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.34342027760016</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>15.59910249968244</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.005326140931628777</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.02178667594276588</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4276620789387805</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>35,07%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-10,24%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>114,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.630347040123927</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.36037539563252</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.173062798529943</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4171494075567558</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.2059998446466284</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0711606668610739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 6,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 5,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,56; 10,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-66,34; 434,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-56,6; 79,12</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,09; 514,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.665593298842994</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.58180971382649</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>30.66803501847854</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7728878396174597</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2896562867473914</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.135051094172435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +775,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>23,46%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-12,46%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.86592248414925</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-21.18841887653583</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>26.71963344034578</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.4426381391818486</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2743543009430413</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5431055764691476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 3,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,03</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 2,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,51; 71,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-32,67; 11,45</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-33,2; 35,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.580849456982853</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-45.94290809970592</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.536579201048358</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.5801992567220164</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5482515177751817</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.04319613743726956</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.359189824286292</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.276520092922244</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>59.02068329782801</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>4.411580794018754</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.1266776030783475</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.587925820857438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.780524295260345</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-9.426566507495149</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.367651021452802</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.216372848686054</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1378966258146469</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1239858428787587</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.057306838930715</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-19.76088036242932</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.344990431322117</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1110939884724606</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2687204142383461</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1092619911179562</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.78067084009971</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9917650203444333</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.74733858610798</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6704994604313742</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.01703217614379834</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.4312037322993149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +938,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
